--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE08AE6-8250-4C3E-A606-B0CD81A8B49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13560" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -53,37 +52,43 @@
     <t>freight</t>
   </si>
   <si>
+    <t>The LCFS percentage set (both the BAU LCFS and the user-specified</t>
+  </si>
+  <si>
+    <t>Additional LCFS Percentage policy lever) will only refer to the fuel</t>
+  </si>
+  <si>
+    <t>used by the vehicle types specified in this variable.  Other vehicle</t>
+  </si>
+  <si>
+    <t>types will be unaffected by the LCFS.</t>
+  </si>
+  <si>
+    <t>California Air Resources Board</t>
+  </si>
+  <si>
+    <t>Low Carbon Fuel Standard: Final Regulation Order</t>
+  </si>
+  <si>
+    <t>https://www.arb.ca.gov/regact/2015/lcfs2015/lcfsfinalregorder.pdf</t>
+  </si>
+  <si>
+    <t>Page 15</t>
+  </si>
+  <si>
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
   <si>
-    <t>Oregon Department of Environmental Quality</t>
-  </si>
-  <si>
-    <t>undated</t>
-  </si>
-  <si>
-    <t>Oregon Clean Fuels Program: Exemptions</t>
-  </si>
-  <si>
-    <t>https://secure.sos.state.or.us/oard/view.action?ruleNumber=340-253-0250</t>
-  </si>
-  <si>
-    <t>Section (2)</t>
-  </si>
-  <si>
-    <t>The Oregon CFP identifies aircrafts as exempt. It also</t>
-  </si>
-  <si>
-    <t>identifies watercraft, however we assume these are smaller</t>
-  </si>
-  <si>
-    <t>than ships here.</t>
+    <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>Based on the California LCFS, we choose to exempt aircraft.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,21 +106,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -123,26 +122,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -151,7 +135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,23 +228,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,23 +263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,70 +438,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -562,24 +517,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -587,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -598,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -609,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -620,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -631,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -642,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE08AE6-8250-4C3E-A606-B0CD81A8B49A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13560" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Source:</t>
   </si>
@@ -52,43 +53,37 @@
     <t>freight</t>
   </si>
   <si>
-    <t>The LCFS percentage set (both the BAU LCFS and the user-specified</t>
-  </si>
-  <si>
-    <t>Additional LCFS Percentage policy lever) will only refer to the fuel</t>
-  </si>
-  <si>
-    <t>used by the vehicle types specified in this variable.  Other vehicle</t>
-  </si>
-  <si>
-    <t>types will be unaffected by the LCFS.</t>
-  </si>
-  <si>
-    <t>California Air Resources Board</t>
-  </si>
-  <si>
-    <t>Low Carbon Fuel Standard: Final Regulation Order</t>
-  </si>
-  <si>
-    <t>https://www.arb.ca.gov/regact/2015/lcfs2015/lcfsfinalregorder.pdf</t>
-  </si>
-  <si>
-    <t>Page 15</t>
-  </si>
-  <si>
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
   <si>
-    <t>(Boolean)</t>
-  </si>
-  <si>
-    <t>Based on the California LCFS, we choose to exempt aircraft.</t>
+    <t>Oregon Department of Environmental Quality</t>
+  </si>
+  <si>
+    <t>undated</t>
+  </si>
+  <si>
+    <t>Oregon Clean Fuels Program: Exemptions</t>
+  </si>
+  <si>
+    <t>https://secure.sos.state.or.us/oard/view.action?ruleNumber=340-253-0250</t>
+  </si>
+  <si>
+    <t>Section (2)</t>
+  </si>
+  <si>
+    <t>The Oregon CFP identifies aircrafts as exempt. It also</t>
+  </si>
+  <si>
+    <t>identifies watercraft, however we assume these are smaller</t>
+  </si>
+  <si>
+    <t>than ships here.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,15 +101,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,11 +123,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,6 +245,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,76 +489,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -517,27 +562,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -545,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -578,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -589,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -600,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/bvtstl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A7E73D-8666-E349-84EA-72C9A4691DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,6 +230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,21 +474,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="4">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,52 +499,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -517,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -527,14 +566,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -545,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -578,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -589,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -600,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/bvtstl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/bvtstl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A7E73D-8666-E349-84EA-72C9A4691DC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A2312-0E57-BB4A-A964-3FB4326B4915}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
